--- a/medicine/Enfance/Raphaël_Fejtö/Raphaël_Fejtö.xlsx
+++ b/medicine/Enfance/Raphaël_Fejtö/Raphaël_Fejtö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Fejt%C3%B6</t>
+          <t>Raphaël_Fejtö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Fejtö, né le 17 septembre 1974[1] à Paris, est un auteur-illustrateur de livre pour enfants et auteur-réalisateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Fejtö, né le 17 septembre 1974 à Paris, est un auteur-illustrateur de livre pour enfants et auteur-réalisateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Fejt%C3%B6</t>
+          <t>Raphaël_Fejtö</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Côté paternel, il est le petit-fils du journaliste et écrivain François Fejtő (1909-2008), dont le père, de confession juive mais élevé par une mère adoptive chrétienne, se disait « libéral, franc-maçon et loyal citoyen de la monarchie austro-hongroise »[2].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Côté paternel, il est le petit-fils du journaliste et écrivain François Fejtő (1909-2008), dont le père, de confession juive mais élevé par une mère adoptive chrétienne, se disait « libéral, franc-maçon et loyal citoyen de la monarchie austro-hongroise ».
 Sa mère est la dessinatrice Nadja Fejto, née en Égypte en 1955. Du côté maternel, il est ainsi le petit-fils de la dessinatrice d'origine russe Olga Lecaye (1916-2004), ainsi que le neveu de Grégoire Solotareff, auteur et dessinateur, et d'Alexis Lecaye, scénariste et romancier .
-Carrière
-À l’âge de douze ans, il écrit son premier livre racontant sa vie en classe de sixième, illustré par Nadja, « vous jurez de dire la vérité, toute la vérité, rien que la vérité sur votre classe de sixième? » aux éditions Gallimard, collection Folio Cadet. Il récidive l’année suivante avec « mes Meufs de Cinquième ». Son déclic de l’écriture lui vient lorsqu’il découvre la liberté de ton de Charles Bukowski qui restera son fidèle mentor.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l’âge de douze ans, il écrit son premier livre racontant sa vie en classe de sixième, illustré par Nadja, « vous jurez de dire la vérité, toute la vérité, rien que la vérité sur votre classe de sixième? » aux éditions Gallimard, collection Folio Cadet. Il récidive l’année suivante avec « mes Meufs de Cinquième ». Son déclic de l’écriture lui vient lorsqu’il découvre la liberté de ton de Charles Bukowski qui restera son fidèle mentor.
 Il est repéré quelque temps plus tard pour jouer un des deux rôles principaux du film Au revoir les enfants (1987) de Louis Malle.  
 Ne souhaitant pas continuer une carrière d’acteur, car il est plus à l’aise « aux commandes d’un projet », il se met à écrire son premier roman « c’est la Life ».
 En 1996, il sort son premier moyen métrage comme réalisateur, 56 fois par semaine, avec Romain Duris dans le rôle principal.
@@ -529,55 +581,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rapha%C3%ABl_Fejt%C3%B6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Filmographie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Comme acteur
-1987 : Au revoir les enfants de Louis Malle
-1996 : 56 fois par semaine (moyen métrage) de Raphaël Fejtö
-Comme réalisateur
-1996 : 56 fois par semaine (moyen métrage)
-2003 : Osmose
-2007 : L'Âge d'homme... maintenant ou jamais !
-Comme scénariste
-1996 : 56 fois par semaine (moyen métrage)
-2003 : Osmose
-2007 : L'Âge d'homme... maintenant ou jamais !
-Comme producteur
-1996 : 56 fois par semaine (moyen métrage)</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Fejt%C3%B6</t>
+          <t>Raphaël_Fejtö</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,13 +602,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comme acteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1987 : Au revoir les enfants de Louis Malle
+1996 : 56 fois par semaine (moyen métrage) de Raphaël Fejtö</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme réalisateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1996 : 56 fois par semaine (moyen métrage)
+2003 : Osmose
+2007 : L'Âge d'homme... maintenant ou jamais !</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1996 : 56 fois par semaine (moyen métrage)
+2003 : Osmose
+2007 : L'Âge d'homme... maintenant ou jamais !</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme producteur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1996 : 56 fois par semaine (moyen métrage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Livres pour enfants
-Chez Playbac, créateur de la collection Les P'tites Inventions
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chez Playbac, créateur de la collection Les P'tites Inventions
 La Pizza[Quand ?]
 Le Stylo[Quand ?]
 La Chasse d'eau[Quand ?]
@@ -658,11 +822,79 @@
 Toute la vérité sur ma classe de sixième et mes meufs de cinquième !, illustrations de Nadja (2015)
 À Gallimard
 Vous jurez de dire la vérité toute ma verite rien que la vérité sur votre classe de sixième [Quand ?]
-Mes meufs de cinquième[Quand ?]
-Roman
-La Vie à deux, ou presque, aux éditions de La Martinière, 2014
-Bande dessinée
-Père et Fils, éditions Cambourakis, 2019
+Mes meufs de cinquième[Quand ?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Vie à deux, ou presque, aux éditions de La Martinière, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raphaël_Fejtö</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Fejt%C3%B6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Père et Fils, éditions Cambourakis, 2019
 Père et Fils, tome 2, éditions Cambourakis, 2019</t>
         </is>
       </c>
